--- a/testData/logindata.xlsx
+++ b/testData/logindata.xlsx
@@ -452,7 +452,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
